--- a/biology/Médecine/Pierre_Darmon_(historien)/Pierre_Darmon_(historien).xlsx
+++ b/biology/Médecine/Pierre_Darmon_(historien)/Pierre_Darmon_(historien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Darmon est un historien français né à Oran en 1939.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en histoire et ancien directeur de recherche au CNRS (Centre Roland Mousnier), Pierre Darmon est un spécialiste de l'histoire de la médecine. Il a publié des ouvrages sur la variole, les maladies épidémiques, le cancer, la médecine légale et le milieu médical. Il est également l'auteur d'ouvrages sur le cinéma sous l'Occupation et sur l'Algérie coloniale, ainsi que des récits et des romans.
 Il a été professeur au lycée Voltaire (Paris).
@@ -543,11 +557,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a publié de nombreux ouvrages sur l'histoire de la médecine, dont Pasteur (Fayard, 1995), L'Homme et les microbes (Fayard, 1999) et Être médecin à Paris en 1900 (Hachette, 2003).
 Il s'est également penché sur la Première Guerre mondiale dans Vivre à Paris pendant la Grande Guerre (Hachette, 2004).
-Dans Un siècle de passions algériennes (Fayard, 2009), il a travaillé sur son Algérie natale[1].
+Dans Un siècle de passions algériennes (Fayard, 2009), il a travaillé sur son Algérie natale.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le mythe de la procréation à l'âge baroque, Pauvert, 1977.
 Le Tribunal de l'impuissance : Virilité et défaillances conjugales dans l'Ancienne France, Seuil, 1979  (ISBN 978-2-02-005321-1).
@@ -592,7 +610,7 @@
 L'Homme et les microbes XVIIe – XXe siècle, Fayard, 1999.
 Le Médecin parisien en 1900, Hachette, 2003.
 Vivre à Paris pendant la Grande Guerre, Hachette, 2004.
-Un siècle de passions algériennes : histoire de l'Algérie coloniale (1830-1940), Fayard, 2009[2]
+Un siècle de passions algériennes : histoire de l'Algérie coloniale (1830-1940), Fayard, 2009
 Femme, repaire de tous les vices. Misogynes et féministes en France (XVIe – XIXe siècles), André Versaille, 2012.
 L'Algérie des passions ; 1870-1939, Perrin, 2012 (édition abrégée de Un siècle de passions algériennes)
 L'Algérie de Pétain, Perrin, 2014.
